--- a/medicine/Psychotrope/Brasserie_des_Abers/Brasserie_des_Abers.xlsx
+++ b/medicine/Psychotrope/Brasserie_des_Abers/Brasserie_des_Abers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Brasserie des Abers est une brasserie artisanale. Elle est située à Ploudalmézeau près de Brest dans le Finistère. Elle a été fondée en 1999 par la société Adam SA, spécialisée dans le négoce de vin et combustibles[1].
-La brasserie brasse onze bières de fermentation haute, non filtrées et non pasteurisées. Les bières ont pour nom : Mutine Blonde, Mutine Ambrée, Mutine Brune, Mutine Blanche, Ouessane, Fleur des Iles, Dolmen, Aber Amber, Aber Lann, Aber Du, Aber Gwenn[2].
+La Brasserie des Abers est une brasserie artisanale. Elle est située à Ploudalmézeau près de Brest dans le Finistère. Elle a été fondée en 1999 par la société Adam SA, spécialisée dans le négoce de vin et combustibles.
+La brasserie brasse onze bières de fermentation haute, non filtrées et non pasteurisées. Les bières ont pour nom : Mutine Blonde, Mutine Ambrée, Mutine Brune, Mutine Blanche, Ouessane, Fleur des Iles, Dolmen, Aber Amber, Aber Lann, Aber Du, Aber Gwenn.
 </t>
         </is>
       </c>
@@ -513,14 +525,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie est née en 1999 à Ploudalmézeau (pays d'Iroise), au sein de la société finistérienne Adam, qui est caviste et grossiste en boissons depuis 1936, mais aussi revendeur de fuel, de bois, de gaz, de charbon, installateur de chapiteaux, de chaudières, de pompes à chaleur. Le logo affiche en effigie le phare de l'île Vierge (Plouguerneau) sous un coucher de soleil[3].
-En 1999, la brasserie lance donc son premier produit, la « Mutine », déclinée en blonde et en ambrée. Dès 2001, les versions blanche et brune suivent. Cette gamme « Mutine » a pour égérie une pirate bretonne, cheveux au vent et fumant la pipe : « Avec cette rebelle, on voulait montrer notre indépendance par rapport au formatage des grands groupes industriels »[4].
-En 2003, la brasserie inaugure sur l'île d'Ouessant la « Ouessane », une bière à fermentation haute dans laquelle est incorporée en fin de cuisson de la bière l'algue alimentaire wakamé (en rapport avec le positionnement géographique des Abers dans un des plus grands champs d'algues d'Europe)[5],[6]. Elle commercialise au même moment une bière à base de fleur d'hibiscus rouge appelée Fleur des îles.
-En 2007, pour fêter les 70 ans de la maison mère, la brasserie produit une bière rousse à 7 degrés, la plus forte des ales bretonnes, baptisée « Dolmen »[4]. En 2013 une nouvelle bière apparaît[7].
-Alors qu'elle occupait au départ une partie du hangar de stockage des établissements Adam, la brasserie dispose ensuite de son propre local de production[8]. La production reste artisanale avec 2 000 hectolitres par an environ dans les années 2010 (destinés essentiellement aux associations qui organisent des événements)[9].
-En 2018, elle commercialise une nouvelle marque de bières traditionnelles, « La Brestoizh »[10]. Les établissements Adam investissent en 2019 un million d'euros pour augmenter leurs capacités de production[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie est née en 1999 à Ploudalmézeau (pays d'Iroise), au sein de la société finistérienne Adam, qui est caviste et grossiste en boissons depuis 1936, mais aussi revendeur de fuel, de bois, de gaz, de charbon, installateur de chapiteaux, de chaudières, de pompes à chaleur. Le logo affiche en effigie le phare de l'île Vierge (Plouguerneau) sous un coucher de soleil.
+En 1999, la brasserie lance donc son premier produit, la « Mutine », déclinée en blonde et en ambrée. Dès 2001, les versions blanche et brune suivent. Cette gamme « Mutine » a pour égérie une pirate bretonne, cheveux au vent et fumant la pipe : « Avec cette rebelle, on voulait montrer notre indépendance par rapport au formatage des grands groupes industriels ».
+En 2003, la brasserie inaugure sur l'île d'Ouessant la « Ouessane », une bière à fermentation haute dans laquelle est incorporée en fin de cuisson de la bière l'algue alimentaire wakamé (en rapport avec le positionnement géographique des Abers dans un des plus grands champs d'algues d'Europe),. Elle commercialise au même moment une bière à base de fleur d'hibiscus rouge appelée Fleur des îles.
+En 2007, pour fêter les 70 ans de la maison mère, la brasserie produit une bière rousse à 7 degrés, la plus forte des ales bretonnes, baptisée « Dolmen ». En 2013 une nouvelle bière apparaît.
+Alors qu'elle occupait au départ une partie du hangar de stockage des établissements Adam, la brasserie dispose ensuite de son propre local de production. La production reste artisanale avec 2 000 hectolitres par an environ dans les années 2010 (destinés essentiellement aux associations qui organisent des événements).
+En 2018, elle commercialise une nouvelle marque de bières traditionnelles, « La Brestoizh ». Les établissements Adam investissent en 2019 un million d'euros pour augmenter leurs capacités de production.
 </t>
         </is>
       </c>
@@ -549,10 +563,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Mutine blanche a reçu la médaille d'argent au concours général agricole de Paris 2008[12]. En 2016 et 2017, elle reçoit la médaille d'or du salon des bières bretonnes de Saint-Brieuc[10].
-La capsule, présentant le logo de la brasserie, a été élue « deuxième plus belle capsule de bière française 2018 » par l'association « Objets de brasserie et capsules de bière française » en 2018[13],[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Mutine blanche a reçu la médaille d'argent au concours général agricole de Paris 2008. En 2016 et 2017, elle reçoit la médaille d'or du salon des bières bretonnes de Saint-Brieuc.
+La capsule, présentant le logo de la brasserie, a été élue « deuxième plus belle capsule de bière française 2018 » par l'association « Objets de brasserie et capsules de bière française » en 2018,.
 </t>
         </is>
       </c>
